--- a/server/uploads/test3.xlsx
+++ b/server/uploads/test3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개발\naivy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개발\naivy\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731E49AE-8B12-43EB-B8F3-EAAADE56FF29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B71BF-9CD4-46D1-8B94-3C93E52FD218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{467B7008-9681-43E7-8377-3ECBD7800802}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -701,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -774,13 +776,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +858,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1192,15 @@
   <dimension ref="A1:JD20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V20"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="28.09765625" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:264" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
@@ -1182,366 +1257,366 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="5" t="s">
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="5" t="s">
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="5" t="s">
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="5" t="s">
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="5" t="s">
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="5" t="s">
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="5" t="s">
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="5" t="s">
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="5" t="s">
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="5" t="s">
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="5" t="s">
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="5" t="s">
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="5" t="s">
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="7"/>
-      <c r="CC1" s="5" t="s">
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="7"/>
-      <c r="CG1" s="5" t="s">
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="7"/>
-      <c r="CK1" s="5" t="s">
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="6"/>
-      <c r="CN1" s="7"/>
-      <c r="CO1" s="5" t="s">
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6"/>
-      <c r="CR1" s="7"/>
-      <c r="CS1" s="5" t="s">
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="CT1" s="6"/>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="7"/>
-      <c r="CW1" s="5" t="s">
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="7"/>
-      <c r="DA1" s="5" t="s">
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="DB1" s="6"/>
-      <c r="DC1" s="6"/>
-      <c r="DD1" s="7"/>
-      <c r="DE1" s="5" t="s">
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DF1" s="6"/>
-      <c r="DG1" s="6"/>
-      <c r="DH1" s="7"/>
-      <c r="DI1" s="5" t="s">
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="DJ1" s="6"/>
-      <c r="DK1" s="6"/>
-      <c r="DL1" s="7"/>
-      <c r="DM1" s="5" t="s">
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="DN1" s="6"/>
-      <c r="DO1" s="6"/>
-      <c r="DP1" s="7"/>
-      <c r="DQ1" s="5" t="s">
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="DR1" s="6"/>
-      <c r="DS1" s="6"/>
-      <c r="DT1" s="7"/>
-      <c r="DU1" s="5" t="s">
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="12"/>
+      <c r="DU1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="DV1" s="6"/>
-      <c r="DW1" s="6"/>
-      <c r="DX1" s="7"/>
-      <c r="DY1" s="5" t="s">
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="DZ1" s="6"/>
-      <c r="EA1" s="6"/>
-      <c r="EB1" s="7"/>
-      <c r="EC1" s="5" t="s">
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="12"/>
+      <c r="EC1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="ED1" s="6"/>
-      <c r="EE1" s="6"/>
-      <c r="EF1" s="7"/>
-      <c r="EG1" s="5" t="s">
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="EH1" s="6"/>
-      <c r="EI1" s="6"/>
-      <c r="EJ1" s="7"/>
-      <c r="EK1" s="5" t="s">
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="EL1" s="6"/>
-      <c r="EM1" s="6"/>
-      <c r="EN1" s="7"/>
-      <c r="EO1" s="5" t="s">
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="EP1" s="6"/>
-      <c r="EQ1" s="6"/>
-      <c r="ER1" s="7"/>
-      <c r="ES1" s="5" t="s">
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="ET1" s="6"/>
-      <c r="EU1" s="6"/>
-      <c r="EV1" s="7"/>
-      <c r="EW1" s="5" t="s">
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="EX1" s="6"/>
-      <c r="EY1" s="6"/>
-      <c r="EZ1" s="7"/>
-      <c r="FA1" s="5" t="s">
+      <c r="EX1" s="11"/>
+      <c r="EY1" s="11"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="FB1" s="6"/>
-      <c r="FC1" s="6"/>
-      <c r="FD1" s="7"/>
-      <c r="FE1" s="5" t="s">
+      <c r="FB1" s="11"/>
+      <c r="FC1" s="11"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="6"/>
-      <c r="FG1" s="6"/>
-      <c r="FH1" s="7"/>
-      <c r="FI1" s="5" t="s">
+      <c r="FF1" s="11"/>
+      <c r="FG1" s="11"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="FJ1" s="6"/>
-      <c r="FK1" s="6"/>
-      <c r="FL1" s="7"/>
-      <c r="FM1" s="5" t="s">
+      <c r="FJ1" s="11"/>
+      <c r="FK1" s="11"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="FN1" s="6"/>
-      <c r="FO1" s="6"/>
-      <c r="FP1" s="7"/>
-      <c r="FQ1" s="5" t="s">
+      <c r="FN1" s="11"/>
+      <c r="FO1" s="11"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="FR1" s="6"/>
-      <c r="FS1" s="6"/>
-      <c r="FT1" s="7"/>
-      <c r="FU1" s="5" t="s">
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11"/>
+      <c r="FT1" s="12"/>
+      <c r="FU1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="FV1" s="6"/>
-      <c r="FW1" s="6"/>
-      <c r="FX1" s="7"/>
-      <c r="FY1" s="5" t="s">
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="12"/>
+      <c r="FY1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="FZ1" s="6"/>
-      <c r="GA1" s="6"/>
-      <c r="GB1" s="7"/>
-      <c r="GC1" s="5" t="s">
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="GD1" s="6"/>
-      <c r="GE1" s="6"/>
-      <c r="GF1" s="7"/>
-      <c r="GG1" s="5" t="s">
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="GH1" s="6"/>
-      <c r="GI1" s="6"/>
-      <c r="GJ1" s="7"/>
-      <c r="GK1" s="5" t="s">
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="GL1" s="6"/>
-      <c r="GM1" s="6"/>
-      <c r="GN1" s="7"/>
-      <c r="GO1" s="5" t="s">
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="GP1" s="6"/>
-      <c r="GQ1" s="6"/>
-      <c r="GR1" s="7"/>
-      <c r="GS1" s="5" t="s">
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="GT1" s="6"/>
-      <c r="GU1" s="6"/>
-      <c r="GV1" s="7"/>
-      <c r="GW1" s="5" t="s">
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="13"/>
+      <c r="GW1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="GX1" s="6"/>
-      <c r="GY1" s="6"/>
-      <c r="GZ1" s="7"/>
-      <c r="HA1" s="5" t="s">
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="HB1" s="6"/>
-      <c r="HC1" s="6"/>
-      <c r="HD1" s="7"/>
-      <c r="HE1" s="5" t="s">
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="HF1" s="6"/>
-      <c r="HG1" s="6"/>
-      <c r="HH1" s="7"/>
-      <c r="HI1" s="5" t="s">
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="12"/>
+      <c r="HI1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="HJ1" s="6"/>
-      <c r="HK1" s="6"/>
-      <c r="HL1" s="7"/>
-      <c r="HM1" s="5" t="s">
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="HN1" s="6"/>
-      <c r="HO1" s="6"/>
-      <c r="HP1" s="7"/>
-      <c r="HQ1" s="5" t="s">
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="12"/>
+      <c r="HQ1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="HR1" s="6"/>
-      <c r="HS1" s="6"/>
-      <c r="HT1" s="7"/>
-      <c r="HU1" s="5" t="s">
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="HV1" s="6"/>
-      <c r="HW1" s="6"/>
-      <c r="HX1" s="7"/>
-      <c r="HY1" s="5" t="s">
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="HZ1" s="6"/>
-      <c r="IA1" s="6"/>
-      <c r="IB1" s="7"/>
-      <c r="IC1" s="5" t="s">
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="ID1" s="6"/>
-      <c r="IE1" s="6"/>
-      <c r="IF1" s="7"/>
-      <c r="IG1" s="5" t="s">
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="IH1" s="6"/>
-      <c r="II1" s="6"/>
-      <c r="IJ1" s="7"/>
-      <c r="IK1" s="5" t="s">
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="13"/>
+      <c r="IK1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="IL1" s="6"/>
-      <c r="IM1" s="6"/>
-      <c r="IN1" s="7"/>
-      <c r="IO1" s="5" t="s">
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="13"/>
+      <c r="IO1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="IP1" s="6"/>
-      <c r="IQ1" s="6"/>
-      <c r="IR1" s="7"/>
-      <c r="IS1" s="5" t="s">
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="13"/>
+      <c r="IS1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="IT1" s="6"/>
-      <c r="IU1" s="6"/>
-      <c r="IV1" s="7"/>
-      <c r="IW1" s="5" t="s">
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="12"/>
+      <c r="IW1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="IX1" s="6"/>
-      <c r="IY1" s="6"/>
-      <c r="IZ1" s="7"/>
-      <c r="JA1" s="5" t="s">
+      <c r="IX1" s="11"/>
+      <c r="IY1" s="11"/>
+      <c r="IZ1" s="13"/>
+      <c r="JA1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="JB1" s="6"/>
-      <c r="JC1" s="6"/>
-      <c r="JD1" s="7"/>
+      <c r="JB1" s="11"/>
+      <c r="JC1" s="11"/>
+      <c r="JD1" s="13"/>
     </row>
     <row r="2" spans="1:264" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
@@ -2351,16 +2426,20 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>252099</v>
-      </c>
-      <c r="O3" s="2">
-        <v>3650</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q3:$IZ3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q3:$IZ3)</f>
+        <v>247866</v>
+      </c>
+      <c r="O3" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q3:$IZ3)</f>
+        <v>3589</v>
       </c>
       <c r="P3" s="1">
-        <v>969244.59</v>
+        <f ca="1">SUMIF($Q$2:$JD$20,T$2,$Q3:$JD3)</f>
+        <v>969244.59000000043</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -3145,16 +3224,20 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>252746</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2505</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q4:$IZ4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q4:$IZ4)</f>
+        <v>248987</v>
+      </c>
+      <c r="O4" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q4:$IZ4)</f>
+        <v>2461</v>
       </c>
       <c r="P4" s="1">
-        <v>907033.13</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q4:$IZ4)</f>
+        <v>892979.25999999966</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -3939,16 +4022,20 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>15262.88</v>
-      </c>
-      <c r="N5" s="2">
-        <v>179869</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1878</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q5:$IZ5)</f>
+        <v>15262.880000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q5:$IZ5)</f>
+        <v>176960</v>
+      </c>
+      <c r="O5" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q5:$IZ5)</f>
+        <v>1841</v>
       </c>
       <c r="P5" s="1">
-        <v>654346.36</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q5:$IZ5)</f>
+        <v>643301.56000000006</v>
       </c>
       <c r="Q5" s="1">
         <v>800</v>
@@ -4733,16 +4820,20 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q6:$IZ6)</f>
         <v>7600</v>
       </c>
-      <c r="N6" s="2">
-        <v>175031</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1384</v>
+      <c r="N6" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q6:$IZ6)</f>
+        <v>173676</v>
+      </c>
+      <c r="O6" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q6:$IZ6)</f>
+        <v>1365</v>
       </c>
       <c r="P6" s="1">
-        <v>641688.05000000005</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q6:$IZ6)</f>
+        <v>635490.9500000003</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -5527,16 +5618,20 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q7:$IZ7)</f>
         <v>19500</v>
       </c>
-      <c r="N7" s="2">
-        <v>164143</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1403</v>
+      <c r="N7" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q7:$IZ7)</f>
+        <v>162256</v>
+      </c>
+      <c r="O7" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q7:$IZ7)</f>
+        <v>1376</v>
       </c>
       <c r="P7" s="1">
-        <v>589671.23</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q7:$IZ7)</f>
+        <v>581995.90000000014</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -6321,16 +6416,20 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>20931.439999999999</v>
-      </c>
-      <c r="N8" s="2">
-        <v>158385</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1098</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q8:$IZ8)</f>
+        <v>20931.440000000002</v>
+      </c>
+      <c r="N8" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q8:$IZ8)</f>
+        <v>155337</v>
+      </c>
+      <c r="O8" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q8:$IZ8)</f>
+        <v>1078</v>
       </c>
       <c r="P8" s="1">
-        <v>576843.09</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q8:$IZ8)</f>
+        <v>566032.62</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -7115,16 +7214,20 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>124062</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1261</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q9:$IZ9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q9:$IZ9)</f>
+        <v>122481</v>
+      </c>
+      <c r="O9" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q9:$IZ9)</f>
+        <v>1233</v>
       </c>
       <c r="P9" s="1">
-        <v>456029.8</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q9:$IZ9)</f>
+        <v>449715.08</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -7909,16 +8012,20 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>88786</v>
-      </c>
-      <c r="O10" s="2">
-        <v>673</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q10:$IZ10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q10:$IZ10)</f>
+        <v>85208</v>
+      </c>
+      <c r="O10" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q10:$IZ10)</f>
+        <v>649</v>
       </c>
       <c r="P10" s="1">
-        <v>347857.31</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q10:$IZ10)</f>
+        <v>334831.06999999995</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -8703,16 +8810,20 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>58309</v>
-      </c>
-      <c r="O11" s="2">
-        <v>798</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q11:$IZ11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q11:$IZ11)</f>
+        <v>57379</v>
+      </c>
+      <c r="O11" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q11:$IZ11)</f>
+        <v>779</v>
       </c>
       <c r="P11" s="1">
-        <v>219921.57</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q11:$IZ11)</f>
+        <v>215863.75000000006</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -9497,16 +9608,20 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>46005</v>
-      </c>
-      <c r="O12" s="2">
-        <v>654</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q12:$IZ12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q12:$IZ12)</f>
+        <v>45401</v>
+      </c>
+      <c r="O12" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q12:$IZ12)</f>
+        <v>639</v>
       </c>
       <c r="P12" s="1">
-        <v>175212.51</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q12:$IZ12)</f>
+        <v>172466.57000000004</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -10291,16 +10406,20 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>46954</v>
-      </c>
-      <c r="O13" s="2">
-        <v>330</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q13:$IZ13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q13:$IZ13)</f>
+        <v>46622</v>
+      </c>
+      <c r="O13" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q13:$IZ13)</f>
+        <v>325</v>
       </c>
       <c r="P13" s="1">
-        <v>167950.73</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q13:$IZ13)</f>
+        <v>166721.23999999987</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -11085,16 +11204,20 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>29011</v>
-      </c>
-      <c r="O14" s="2">
-        <v>460</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q14:$IZ14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q14:$IZ14)</f>
+        <v>28433</v>
+      </c>
+      <c r="O14" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q14:$IZ14)</f>
+        <v>448</v>
       </c>
       <c r="P14" s="1">
-        <v>112167.67</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q14:$IZ14)</f>
+        <v>109579.02</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -11879,16 +12002,20 @@
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>28584</v>
-      </c>
-      <c r="O15" s="2">
-        <v>365</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q15:$IZ15)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q15:$IZ15)</f>
+        <v>28211</v>
+      </c>
+      <c r="O15" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q15:$IZ15)</f>
+        <v>357</v>
       </c>
       <c r="P15" s="1">
-        <v>107505.32</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q15:$IZ15)</f>
+        <v>105982.75000000001</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -12673,16 +12800,20 @@
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>29602</v>
-      </c>
-      <c r="O16" s="2">
-        <v>291</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q16:$IZ16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q16:$IZ16)</f>
+        <v>29288</v>
+      </c>
+      <c r="O16" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q16:$IZ16)</f>
+        <v>285</v>
       </c>
       <c r="P16" s="1">
-        <v>106745.53</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q16:$IZ16)</f>
+        <v>105513.75000000004</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -13467,16 +13598,20 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>18788</v>
-      </c>
-      <c r="O17" s="2">
-        <v>209</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q17:$IZ17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q17:$IZ17)</f>
+        <v>8189</v>
+      </c>
+      <c r="O17" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q17:$IZ17)</f>
+        <v>118</v>
       </c>
       <c r="P17" s="1">
-        <v>79418.86</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q17:$IZ17)</f>
+        <v>37692.57</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -14261,16 +14396,20 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>15126</v>
-      </c>
-      <c r="O18" s="2">
-        <v>292</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q18:$IZ18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q18:$IZ18)</f>
+        <v>14926</v>
+      </c>
+      <c r="O18" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q18:$IZ18)</f>
+        <v>285</v>
       </c>
       <c r="P18" s="1">
-        <v>61639.37</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q18:$IZ18)</f>
+        <v>60695.549999999988</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -15055,16 +15194,20 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>16937</v>
-      </c>
-      <c r="O19" s="2">
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q19:$IZ19)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q19:$IZ19)</f>
+        <v>16819</v>
+      </c>
+      <c r="O19" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q19:$IZ19)</f>
         <v>77</v>
       </c>
       <c r="P19" s="1">
-        <v>53507.86</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q19:$IZ19)</f>
+        <v>53172.240000000005</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -15849,16 +15992,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1777</v>
-      </c>
-      <c r="O20" s="2">
-        <v>19</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,Q$2,$Q20:$IZ20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,R$2,$Q20:$IZ20)</f>
+        <v>1760</v>
+      </c>
+      <c r="O20" s="1">
+        <f ca="1">SUMIF($Q$2:$IZ$20,S$2,$Q20:$IZ20)</f>
+        <v>18</v>
       </c>
       <c r="P20" s="1">
-        <v>5967.32</v>
+        <f ca="1">SUMIF($Q$2:$IZ$20,T$2,$Q20:$IZ20)</f>
+        <v>5865.0300000000007</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -16618,6 +16765,16 @@
     <mergeCell ref="GG1:GJ1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="HI1:HL1"/>
+    <mergeCell ref="HM1:HP1"/>
+    <mergeCell ref="FU1:FX1"/>
+    <mergeCell ref="EC1:EF1"/>
+    <mergeCell ref="EG1:EJ1"/>
+    <mergeCell ref="EK1:EN1"/>
+    <mergeCell ref="EO1:ER1"/>
+    <mergeCell ref="ES1:EV1"/>
+    <mergeCell ref="EW1:EZ1"/>
+    <mergeCell ref="FA1:FD1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -16632,16 +16789,6 @@
     <mergeCell ref="IK1:IN1"/>
     <mergeCell ref="IO1:IR1"/>
     <mergeCell ref="IS1:IV1"/>
-    <mergeCell ref="HI1:HL1"/>
-    <mergeCell ref="HM1:HP1"/>
-    <mergeCell ref="FU1:FX1"/>
-    <mergeCell ref="EC1:EF1"/>
-    <mergeCell ref="EG1:EJ1"/>
-    <mergeCell ref="EK1:EN1"/>
-    <mergeCell ref="EO1:ER1"/>
-    <mergeCell ref="ES1:EV1"/>
-    <mergeCell ref="EW1:EZ1"/>
-    <mergeCell ref="FA1:FD1"/>
     <mergeCell ref="GK1:GN1"/>
     <mergeCell ref="GO1:GR1"/>
     <mergeCell ref="GS1:GV1"/>
